--- a/Evaluation/commit_message_rouge_scores.xlsx
+++ b/Evaluation/commit_message_rouge_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>concise msg ROUGE-2</t>
+          <t>concise msg ROUGE-L</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>concise msg ROUGE-L</t>
+          <t>extended msg ROUGE-1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>extended msg ROUGE-1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>extended msg ROUGE-2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>extended msg ROUGE-L</t>
         </is>
@@ -520,20 +510,14 @@
         <v>0.3</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="I2" t="n">
         <v>0.2127659574468085</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2127659574468085</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -565,20 +549,14 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I3" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.04651162790697674</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1333333333333333</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,18 +588,12 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1379310344827586</v>
-      </c>
-      <c r="K4" t="n">
         <v>0.2580645161290323</v>
       </c>
     </row>
@@ -655,20 +627,14 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="I5" t="n">
         <v>0.2608695652173914</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.2608695652173914</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -700,20 +666,14 @@
         <v>0.1739130434782609</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I6" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1111111111111111</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -745,20 +705,14 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I7" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1333333333333333</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -790,18 +744,12 @@
         <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4444444444444445</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K8" t="n">
         <v>0.2222222222222222</v>
       </c>
     </row>
@@ -835,20 +783,14 @@
         <v>0.1052631578947369</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.05128205128205129</v>
       </c>
       <c r="I9" t="n">
         <v>0.05128205128205129</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05128205128205129</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -880,20 +822,14 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="I10" t="n">
         <v>0.1212121212121212</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1212121212121212</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -925,20 +861,14 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="I11" t="n">
         <v>0.1777777777777778</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.04651162790697675</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1777777777777778</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -970,18 +900,12 @@
         <v>0.4545454545454546</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4545454545454546</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
         <v>0.196078431372549</v>
       </c>
     </row>
@@ -1015,20 +939,14 @@
         <v>0.08695652173913043</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1311475409836065</v>
       </c>
       <c r="I13" t="n">
         <v>0.1311475409836065</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1311475409836065</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1068,12 +986,6 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1105,18 +1017,12 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
         <v>0.1904761904761905</v>
       </c>
     </row>
@@ -1150,18 +1056,12 @@
         <v>0.25</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H16" t="n">
-        <v>0.25</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="K16" t="n">
         <v>0.1621621621621621</v>
       </c>
     </row>
@@ -1195,20 +1095,14 @@
         <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.08888888888888888</v>
       </c>
       <c r="I17" t="n">
         <v>0.08888888888888888</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.08888888888888888</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1240,18 +1134,12 @@
         <v>0.303030303030303</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.1967213114754098</v>
-      </c>
-      <c r="K18" t="n">
         <v>0.4444444444444445</v>
       </c>
     </row>
@@ -1285,20 +1173,14 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07272727272727274</v>
       </c>
       <c r="I19" t="n">
         <v>0.07272727272727274</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.07272727272727274</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1330,18 +1212,12 @@
         <v>0.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2553191489361702</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="K20" t="n">
         <v>0.2127659574468085</v>
       </c>
     </row>
@@ -1375,18 +1251,12 @@
         <v>0.2580645161290323</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -1420,20 +1290,14 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="I22" t="n">
         <v>0.2285714285714286</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.0606060606060606</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2285714285714286</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1465,20 +1329,14 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="I23" t="n">
         <v>0.1951219512195122</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1951219512195122</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1510,18 +1368,12 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.35</v>
       </c>
       <c r="I24" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.05263157894736843</v>
-      </c>
-      <c r="K24" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1555,20 +1407,14 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I25" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.1333333333333333</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1600,18 +1446,12 @@
         <v>0.2</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4444444444444445</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K26" t="n">
         <v>0.2222222222222222</v>
       </c>
     </row>
@@ -1645,20 +1485,14 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.05405405405405405</v>
       </c>
       <c r="I27" t="n">
         <v>0.05405405405405405</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.05405405405405405</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1690,18 +1524,12 @@
         <v>0.1052631578947369</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1621621621621622</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
         <v>0.1081081081081081</v>
       </c>
     </row>
@@ -1735,18 +1563,12 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
         <v>0.1333333333333333</v>
       </c>
     </row>
@@ -1780,20 +1602,14 @@
         <v>0.1052631578947369</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I30" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.08333333333333333</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1825,20 +1641,14 @@
         <v>0.24</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.24</v>
       </c>
       <c r="H31" t="n">
-        <v>0.24</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I31" t="n">
         <v>0.09523809523809523</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.09523809523809523</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1870,20 +1680,14 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.08333333333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>0.08333333333333334</v>
+        <v>0.08</v>
       </c>
       <c r="I32" t="n">
         <v>0.08</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.08</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1915,18 +1719,12 @@
         <v>0.125</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H33" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1960,20 +1758,14 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="I34" t="n">
         <v>0.1714285714285714</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.1714285714285714</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2005,20 +1797,14 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0816326530612245</v>
       </c>
       <c r="I35" t="n">
         <v>0.0816326530612245</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.0816326530612245</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2050,18 +1836,12 @@
         <v>0.06896551724137932</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.06896551724137932</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06896551724137932</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4745762711864407</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.175438596491228</v>
-      </c>
-      <c r="K36" t="n">
         <v>0.3728813559322034</v>
       </c>
     </row>
@@ -2095,18 +1875,12 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2641509433962264</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="K37" t="n">
         <v>0.1886792452830189</v>
       </c>
     </row>
@@ -2140,20 +1914,14 @@
         <v>0.1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="I38" t="n">
         <v>0.1276595744680851</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.1276595744680851</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2185,20 +1953,14 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="I39" t="n">
         <v>0.1224489795918367</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.1224489795918367</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2230,20 +1992,14 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="I40" t="n">
         <v>0.2162162162162162</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.2162162162162162</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2275,20 +2031,14 @@
         <v>0.08333333333333334</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.08333333333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>0.08333333333333334</v>
+        <v>0.1304347826086957</v>
       </c>
       <c r="I41" t="n">
         <v>0.1304347826086957</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.1304347826086957</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2320,20 +2070,14 @@
         <v>0.1290322580645161</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I42" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.1818181818181818</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2365,20 +2109,14 @@
         <v>0.4</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I43" t="n">
         <v>0.2</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2410,18 +2148,12 @@
         <v>0.2</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4444444444444445</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K44" t="n">
         <v>0.2222222222222222</v>
       </c>
     </row>
@@ -2455,20 +2187,14 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.05405405405405405</v>
       </c>
       <c r="I45" t="n">
         <v>0.05405405405405405</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.05405405405405405</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2500,20 +2226,14 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="I46" t="n">
         <v>0.1212121212121212</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1212121212121212</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2545,18 +2265,12 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
         <v>0.0909090909090909</v>
       </c>
     </row>
@@ -2590,20 +2304,14 @@
         <v>0.09090909090909093</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.09090909090909093</v>
       </c>
       <c r="H48" t="n">
-        <v>0.09090909090909093</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="I48" t="n">
         <v>0.07843137254901961</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.07843137254901961</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2635,18 +2343,12 @@
         <v>0.2857142857142856</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2857142857142856</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="I49" t="n">
-        <v>0.135593220338983</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
         <v>0.1016949152542373</v>
       </c>
     </row>
@@ -2680,18 +2382,12 @@
         <v>0.16</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="I50" t="n">
-        <v>0.196078431372549</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.0816326530612245</v>
-      </c>
-      <c r="K50" t="n">
         <v>0.1568627450980392</v>
       </c>
     </row>
@@ -2725,18 +2421,12 @@
         <v>0.1052631578947369</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
         <v>0.1395348837209302</v>
       </c>
     </row>
@@ -2770,20 +2460,14 @@
         <v>0.08695652173913043</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I52" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.09090909090909091</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2815,20 +2499,14 @@
         <v>0.1052631578947369</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I53" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.09090909090909091</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2860,18 +2538,12 @@
         <v>0.06896551724137932</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.06896551724137932</v>
       </c>
       <c r="H54" t="n">
-        <v>0.06896551724137932</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3389830508474576</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.175438596491228</v>
-      </c>
-      <c r="K54" t="n">
         <v>0.271186440677966</v>
       </c>
     </row>
@@ -2905,18 +2577,12 @@
         <v>0.25</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.290909090909091</v>
       </c>
       <c r="I55" t="n">
-        <v>0.290909090909091</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.07547169811320756</v>
-      </c>
-      <c r="K55" t="n">
         <v>0.2545454545454546</v>
       </c>
     </row>
